--- a/数据整理/stocks/A股/深证主板/002025-航天电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002025-航天电器.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5772,7 +5773,6 @@
           <t>华泰柏瑞积极成长混合H</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>74.75</t>
@@ -5788,6 +5788,1846 @@
       </c>
       <c r="H44" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.4820</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2698</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1256</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0603</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9922</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9396</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9324</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8721</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6604</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6508</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5630</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5020</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4690</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4312</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3932</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3657</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2508</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002025-航天电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002025-航天电器.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7633,4 +7634,2260 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.1813</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2228</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0879</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0460</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9235</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9235</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8982</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8544</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8239</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>43.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8089</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7450</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7133</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6293</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6166</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5698</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5565</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5374</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4809</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3707</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3551</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3479</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3026</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>53.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>66.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>66.31</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>53.54</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002025-航天电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002025-航天电器.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9890,4 +9891,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>95</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002025-航天电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002025-航天电器.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9899,7 +9900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9910,17 +9911,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9930,14 +9951,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.18</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -9946,14 +9989,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.56</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -9962,14 +10027,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.26</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3900</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -9978,13 +10065,4819 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4675</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4065</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2597</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2206</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1456</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1391</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1169</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0907</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0429</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9876</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9474</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9238</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7975</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7678</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7557</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7498</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7279</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7122</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7049</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6488</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6371</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6229</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6229</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5158</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4693</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4032</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3877</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3758</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3590</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3460</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3024</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2753</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>30.95</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>36.64</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>73.02</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>73.02</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004274</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>33.22</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004801</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004275</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002328</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>004802</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>127</v>
+      </c>
+      <c r="D2" t="n">
+        <v>48.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>95</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>35.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002025-航天电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002025-航天电器.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14776,7 +14777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14787,17 +14788,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14807,14 +14828,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>127</v>
-      </c>
-      <c r="D2" t="n">
-        <v>48.36</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -14823,14 +14866,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>58</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.18</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7841</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -14839,14 +14904,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.56</v>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1789</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -14855,14 +14942,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.26</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9990</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -14871,13 +14980,3087 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0707</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9856</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8495</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8369</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8196</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7648</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7611</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6954</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6716</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6300</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6160</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5375</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5231</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4423</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4302</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4187</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4164</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4105</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3085</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>62.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>60.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>75.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>69.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>52.90</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>127</v>
+      </c>
+      <c r="D3" t="n">
+        <v>48.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>95</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>35.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002025-航天电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002025-航天电器.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17943,7 +17944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17954,17 +17955,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17974,14 +17995,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>82</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.78</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -17990,14 +18033,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>127</v>
-      </c>
-      <c r="D3" t="n">
-        <v>48.36</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7590</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -18006,14 +18071,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>58</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.18</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6217</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -18022,14 +18109,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>47</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.56</v>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2106</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -18038,14 +18147,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>43</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.26</v>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0774</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -18054,13 +18185,3297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9427</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9018</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8980</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8630</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7881</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7276</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7276</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6897</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6583</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5938</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5595</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4721</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4093</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4007</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3877</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012920</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012921</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012922</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012923</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>74.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014333</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004486</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实稳怡债券</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014334</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>127</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>95</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>35.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002025-航天电器.xlsx
+++ b/数据整理/stocks/A股/深证主板/002025-航天电器.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="D2" t="n">
-        <v>30.38</v>
+        <v>42.13</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D3" t="n">
-        <v>30.78</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>48.36</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="D5" t="n">
-        <v>30.18</v>
+        <v>48.36</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
-        <v>26.56</v>
+        <v>30.18</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D7" t="n">
-        <v>23.26</v>
+        <v>26.56</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>43</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>95</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>35.53</v>
       </c>
     </row>
@@ -600,6 +617,5262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H138"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1604</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9212</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8612</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5298</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3946</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3492</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2359</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2053</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1034</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0318</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9811</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9733</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银互联网加股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9713</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8380</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8265</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8259</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7937</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7465</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6356</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5709</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5602</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5538</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5254</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银行业成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4513</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3963</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3673</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3387</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3281</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3275</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012556</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛景气优选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2877</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012014</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信聚润6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2071</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>95.28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012015</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信聚润6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012920</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012921</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012922</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012923</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银新得益混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>62.85</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014241</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>农银均衡收益混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.60</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014267</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014727</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>易方达成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001524</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰柏瑞精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银新增利混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014728</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>易方达成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014333</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>65.26</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>016029</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>41.29</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>41.29</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008629</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008630</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014049</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>工银新增益混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>61.34</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>014334</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>工银优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>65.26</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>016030</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014268</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>014050</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>016050</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>016070</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>016463</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3997,7 +9270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7163,7 +12436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12039,7 +17312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14295,7 +19568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16135,7 +21408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17818,7 +23091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
